--- a/src/main/resources/excel/Tech.xlsx
+++ b/src/main/resources/excel/Tech.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Tech 12" sheetId="1" state="visible" r:id="rId2"/>
@@ -1092,6 +1092,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1151,8 +1152,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1175,129 +1180,129 @@
   </sheetPr>
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1319,129 +1324,129 @@
   </sheetPr>
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A122" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>288</v>
       </c>
     </row>
@@ -1463,129 +1468,129 @@
   </sheetPr>
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A137" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>318</v>
       </c>
     </row>
@@ -1607,129 +1612,129 @@
   </sheetPr>
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A152" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>348</v>
       </c>
     </row>
@@ -1755,125 +1760,125 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1899,125 +1904,125 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2039,129 +2044,129 @@
   </sheetPr>
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A32" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2183,129 +2188,129 @@
   </sheetPr>
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A47" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>143</v>
       </c>
     </row>
@@ -2327,129 +2332,129 @@
   </sheetPr>
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A62" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>172</v>
       </c>
     </row>
@@ -2471,129 +2476,129 @@
   </sheetPr>
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A77" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>201</v>
       </c>
     </row>
@@ -2615,129 +2620,129 @@
   </sheetPr>
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A92" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>230</v>
       </c>
     </row>
@@ -2759,129 +2764,129 @@
   </sheetPr>
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A107" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>260</v>
       </c>
     </row>
